--- a/BackTest/2020-01-11 BackTest OGO.xlsx
+++ b/BackTest/2020-01-11 BackTest OGO.xlsx
@@ -451,7 +451,7 @@
         <v>9.960416666666672</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.68</v>
+        <v>9.688000000000001</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -527,14 +527,12 @@
         <v>9.95173333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>9.689</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
@@ -568,12 +566,14 @@
         <v>9.944733333333341</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>10.2</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -607,12 +607,14 @@
         <v>9.938066666666673</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>10.34</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
@@ -4081,16 +4083,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4118,11 +4122,15 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4157,7 +4165,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4192,7 +4204,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4227,7 +4243,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4262,7 +4282,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4297,7 +4321,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4332,7 +4360,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4367,7 +4399,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4402,7 +4438,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4437,7 +4477,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4472,7 +4516,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4507,7 +4555,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4542,7 +4594,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4577,7 +4633,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4612,7 +4672,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4643,11 +4707,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +4746,15 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4717,7 +4789,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4752,7 +4828,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4787,7 +4867,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4818,11 +4902,15 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4857,7 +4945,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4892,7 +4984,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4927,7 +5023,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4962,7 +5062,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4997,7 +5101,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5032,7 +5140,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5067,7 +5179,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5102,7 +5218,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5137,7 +5257,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5172,7 +5296,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5335,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5242,7 +5374,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5277,7 +5413,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5312,7 +5452,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5347,7 +5491,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5382,7 +5530,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5417,7 +5569,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5452,7 +5608,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +5647,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5522,7 +5686,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5557,7 +5725,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5592,7 +5764,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5627,7 +5803,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5662,7 +5842,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +5881,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5732,7 +5920,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5767,7 +5959,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5802,7 +5998,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5837,7 +6037,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5872,7 +6076,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5907,7 +6115,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5942,7 +6154,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5977,7 +6193,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6012,7 +6232,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6047,7 +6271,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6082,7 +6310,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6117,7 +6349,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6152,7 +6388,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6187,7 +6427,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6222,7 +6466,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6257,7 +6505,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6292,7 +6544,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6327,7 +6583,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6622,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6397,7 +6661,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6432,7 +6700,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6467,7 +6739,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6502,7 +6778,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6537,7 +6817,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6572,7 +6856,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6607,7 +6895,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6642,7 +6934,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6677,7 +6973,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6712,7 +7012,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6747,7 +7051,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6782,7 +7090,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6817,7 +7129,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +7168,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6887,7 +7207,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6922,7 +7246,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6957,7 +7285,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6992,7 +7324,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7027,7 +7363,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7062,7 +7402,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7097,7 +7441,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7132,7 +7480,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7167,7 +7519,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7202,7 +7558,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7237,7 +7597,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7272,7 +7636,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +7675,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7342,7 +7714,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7377,7 +7753,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7412,7 +7792,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7447,7 +7831,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7482,7 +7870,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7909,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7552,7 +7948,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7587,7 +7987,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7622,7 +8026,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7657,7 +8065,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7692,7 +8104,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7727,7 +8143,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7762,7 +8182,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7797,7 +8221,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7832,7 +8260,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7867,7 +8299,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7902,7 +8338,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7937,7 +8377,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7972,7 +8416,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +8455,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8042,7 +8494,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8077,7 +8533,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8112,7 +8572,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8147,7 +8611,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8182,7 +8650,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8217,7 +8689,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8252,10 +8728,12 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -17660,13 +18138,17 @@
         <v>10.1076</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>9.802</v>
+      </c>
+      <c r="K483" t="n">
+        <v>9.802</v>
+      </c>
       <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
@@ -17695,14 +18177,22 @@
         <v>10.1046</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="K484" t="n">
+        <v>9.802</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17730,14 +18220,22 @@
         <v>10.09826666666667</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="K485" t="n">
+        <v>9.802</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -19935,20 +20433,14 @@
         <v>9.855733333333326</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="n">
-        <v>9.631</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19976,20 +20468,14 @@
         <v>9.850233333333327</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>9.628</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20023,12 +20509,12 @@
         <v>0</v>
       </c>
       <c r="J550" t="n">
-        <v>9.452999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M550" t="n">
@@ -20058,14 +20544,12 @@
         <v>9.835633333333327</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="n">
-        <v>9.619999999999999</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
@@ -20099,14 +20583,12 @@
         <v>9.826666666666659</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="n">
-        <v>9.451000000000001</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
@@ -20140,14 +20622,12 @@
         <v>9.820483333333327</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>9.451000000000001</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
@@ -20181,14 +20661,12 @@
         <v>9.814316666666659</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>9.628</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
@@ -20222,14 +20700,12 @@
         <v>9.808316666666659</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
@@ -20263,14 +20739,12 @@
         <v>9.801683333333326</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
@@ -20304,14 +20778,12 @@
         <v>9.797016666666659</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>9.432</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
@@ -20345,14 +20817,12 @@
         <v>9.79496666666666</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>9.58</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
@@ -20386,14 +20856,12 @@
         <v>9.793099999999994</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
@@ -20427,14 +20895,12 @@
         <v>9.783833333333328</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>9.44</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
@@ -20468,14 +20934,12 @@
         <v>9.774566666666662</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>9.432</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
@@ -20509,14 +20973,12 @@
         <v>9.767749999999994</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>9.57</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr">
         <is>
@@ -20550,14 +21012,12 @@
         <v>9.76301666666666</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>9.577999999999999</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
@@ -20591,14 +21051,12 @@
         <v>9.756549999999994</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
@@ -20632,14 +21090,12 @@
         <v>9.75006666666666</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
@@ -20673,14 +21129,12 @@
         <v>9.744733333333325</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="n">
-        <v>9.579000000000001</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
@@ -20714,14 +21168,12 @@
         <v>9.739383333333326</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
@@ -20755,14 +21207,12 @@
         <v>9.735533333333326</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>9.579000000000001</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
@@ -20796,14 +21246,12 @@
         <v>9.729366666666659</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>9.579000000000001</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
@@ -20837,14 +21285,12 @@
         <v>9.720949999999991</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
@@ -20878,14 +21324,12 @@
         <v>9.712533333333324</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
@@ -20919,14 +21363,12 @@
         <v>9.704116666666659</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>9.444000000000001</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
@@ -20960,14 +21402,12 @@
         <v>9.698983333333326</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>9.445</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
@@ -21001,14 +21441,12 @@
         <v>9.690833333333327</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>9.460000000000001</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
@@ -21042,14 +21480,12 @@
         <v>9.685649999999994</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>9.445</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
@@ -21083,14 +21519,12 @@
         <v>9.677483333333328</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>9.504</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
@@ -21124,14 +21558,12 @@
         <v>9.674149999999994</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>9.465999999999999</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
@@ -21165,14 +21597,12 @@
         <v>9.674383333333328</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>9.699</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
@@ -21206,14 +21636,12 @@
         <v>9.666716666666661</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>9.914</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
@@ -21247,14 +21675,12 @@
         <v>9.674999999999992</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>10.3</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
@@ -21288,14 +21714,12 @@
         <v>9.68166666666666</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>9.699999999999999</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
@@ -21953,14 +22377,12 @@
         <v>9.651216666666661</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>9.707000000000001</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
@@ -21994,14 +22416,12 @@
         <v>9.65186666666666</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>9.707000000000001</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
@@ -22035,14 +22455,12 @@
         <v>9.651383333333326</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>9.611000000000001</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
@@ -22076,14 +22494,12 @@
         <v>9.651249999999994</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>9.603999999999999</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
@@ -22117,14 +22533,12 @@
         <v>9.653383333333327</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>9.759</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
@@ -22158,14 +22572,12 @@
         <v>9.653049999999995</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>9.612</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
@@ -22199,14 +22611,12 @@
         <v>9.652733333333327</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>9.615</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
@@ -22240,14 +22650,12 @@
         <v>9.652216666666662</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>9.612</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
@@ -22281,14 +22689,12 @@
         <v>9.651699999999996</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>9.601000000000001</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
@@ -22322,14 +22728,12 @@
         <v>9.651199999999996</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>9.602</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
@@ -22363,14 +22767,12 @@
         <v>9.650716666666662</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>9.602</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
@@ -22404,14 +22806,12 @@
         <v>9.652533333333331</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>9.602</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
@@ -22445,14 +22845,12 @@
         <v>9.657349999999997</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>9.73</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
@@ -22486,14 +22884,12 @@
         <v>9.659166666666664</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>9.720000000000001</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
@@ -22527,14 +22923,12 @@
         <v>9.661666666666664</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>9.728999999999999</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
@@ -22568,14 +22962,12 @@
         <v>9.660049999999995</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>9.550000000000001</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
@@ -22609,14 +23001,12 @@
         <v>9.658233333333328</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="n">
-        <v>9.52</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
@@ -22650,14 +23040,12 @@
         <v>9.659566666666661</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>9.52</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
@@ -22691,14 +23079,12 @@
         <v>9.663999999999994</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>9.698</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
@@ -22732,14 +23118,12 @@
         <v>9.66531666666666</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>9.52</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
@@ -22773,14 +23157,12 @@
         <v>9.664149999999994</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="n">
-        <v>9.52</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
@@ -22814,14 +23196,12 @@
         <v>9.665483333333325</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="n">
-        <v>9.510999999999999</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
@@ -22855,14 +23235,12 @@
         <v>9.666616666666659</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>9.583</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
@@ -22896,14 +23274,12 @@
         <v>9.667583333333324</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>9.49</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
@@ -22937,14 +23313,12 @@
         <v>9.666099999999993</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>9.491</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
@@ -22978,14 +23352,12 @@
         <v>9.664633333333326</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>9.49</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
@@ -23019,14 +23391,12 @@
         <v>9.661849999999992</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>9.451000000000001</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
@@ -23060,14 +23430,12 @@
         <v>9.662349999999993</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>9.49</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
@@ -23101,14 +23469,12 @@
         <v>9.66086666666666</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
@@ -23142,14 +23508,12 @@
         <v>9.657233333333327</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>9.49</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
@@ -23183,14 +23547,12 @@
         <v>9.653933333333327</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>9.381</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
@@ -23224,14 +23586,12 @@
         <v>9.654433333333328</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
@@ -23265,14 +23625,12 @@
         <v>9.657066666666662</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>9.57</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
@@ -23306,14 +23664,12 @@
         <v>9.655849999999996</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
@@ -23347,14 +23703,12 @@
         <v>9.654649999999997</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
@@ -23388,14 +23742,12 @@
         <v>9.653816666666664</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>9.372</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
@@ -23429,14 +23781,12 @@
         <v>9.655649999999998</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>9.569000000000001</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
@@ -23470,14 +23820,12 @@
         <v>9.654666666666662</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="n">
-        <v>9.550000000000001</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
@@ -23511,14 +23859,12 @@
         <v>9.656133333333328</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
@@ -23552,14 +23898,12 @@
         <v>9.651316666666663</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>9.515000000000001</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
@@ -23593,14 +23937,12 @@
         <v>9.644233333333329</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
@@ -23634,14 +23976,12 @@
         <v>9.644233333333329</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>9.49</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
@@ -23675,14 +24015,12 @@
         <v>9.629599999999998</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>9.52</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
@@ -23716,14 +24054,12 @@
         <v>9.616633333333333</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>9.51</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
@@ -23757,14 +24093,12 @@
         <v>9.615133333333334</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>9.522</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
@@ -23798,14 +24132,12 @@
         <v>9.616033333333336</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="n">
-        <v>9.522</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
@@ -23839,14 +24171,12 @@
         <v>9.615850000000002</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
@@ -23880,14 +24210,12 @@
         <v>9.614466666666669</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
       </c>
-      <c r="J645" t="n">
-        <v>9.451000000000001</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
@@ -23921,14 +24249,12 @@
         <v>9.604516666666671</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
       </c>
-      <c r="J646" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
@@ -23962,14 +24288,12 @@
         <v>9.597900000000005</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
       </c>
-      <c r="J647" t="n">
-        <v>9.403</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
@@ -24003,14 +24327,12 @@
         <v>9.593066666666671</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
-      <c r="J648" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
@@ -24044,14 +24366,12 @@
         <v>9.58491666666667</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
       </c>
-      <c r="J649" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
@@ -24085,14 +24405,12 @@
         <v>9.577000000000004</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
       </c>
-      <c r="J650" t="n">
-        <v>9.51</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
@@ -24126,14 +24444,12 @@
         <v>9.572416666666671</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
       </c>
-      <c r="J651" t="n">
-        <v>9.513999999999999</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
@@ -24167,14 +24483,12 @@
         <v>9.568150000000005</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
       </c>
-      <c r="J652" t="n">
-        <v>9.515000000000001</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
@@ -24208,14 +24522,12 @@
         <v>9.564116666666672</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
       </c>
-      <c r="J653" t="n">
-        <v>9.515000000000001</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
@@ -24249,14 +24561,12 @@
         <v>9.567116666666671</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
       </c>
-      <c r="J654" t="n">
-        <v>9.638999999999999</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
@@ -24290,14 +24600,12 @@
         <v>9.570116666666671</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
       </c>
-      <c r="J655" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
@@ -24331,14 +24639,12 @@
         <v>9.570783333333337</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
       </c>
-      <c r="J656" t="n">
-        <v>9.640000000000001</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
@@ -24411,14 +24717,12 @@
         <v>9.573166666666671</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
       </c>
-      <c r="J658" t="n">
-        <v>9.603999999999999</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
@@ -24452,14 +24756,12 @@
         <v>9.574550000000004</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
       </c>
-      <c r="J659" t="n">
-        <v>9.843</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
@@ -24493,14 +24795,12 @@
         <v>9.578083333333337</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
       </c>
-      <c r="J660" t="n">
-        <v>9.82</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
@@ -24534,14 +24834,12 @@
         <v>9.580716666666671</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
       </c>
-      <c r="J661" t="n">
-        <v>9.77</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
@@ -24575,14 +24873,12 @@
         <v>9.578900000000004</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
       </c>
-      <c r="J662" t="n">
-        <v>9.646000000000001</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
@@ -24616,14 +24912,12 @@
         <v>9.582033333333337</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
       </c>
-      <c r="J663" t="n">
-        <v>9.800000000000001</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
@@ -24657,14 +24951,12 @@
         <v>9.586833333333338</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
       </c>
-      <c r="J664" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
@@ -24698,14 +24990,12 @@
         <v>9.591800000000005</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
       </c>
-      <c r="J665" t="n">
-        <v>9.67</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
@@ -25051,14 +25341,12 @@
         <v>9.618333333333341</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="n">
-        <v>9.817</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
@@ -25248,14 +25536,12 @@
         <v>9.630750000000006</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
       </c>
-      <c r="J679" t="n">
-        <v>9.81</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
@@ -25484,14 +25770,12 @@
         <v>9.657666666666669</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
       </c>
-      <c r="J685" t="n">
-        <v>9.798999999999999</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
@@ -26071,14 +26355,12 @@
         <v>9.716516666666667</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
       </c>
-      <c r="J700" t="n">
-        <v>9.752000000000001</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr">
         <is>
@@ -27087,14 +27369,12 @@
         <v>9.778150000000002</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
-      <c r="J726" t="n">
-        <v>9.83</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
       <c r="L726" t="inlineStr">
         <is>
@@ -27128,14 +27408,12 @@
         <v>9.775466666666667</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
       </c>
-      <c r="J727" t="n">
-        <v>9.818</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
       <c r="L727" t="inlineStr">
         <is>
@@ -27286,14 +27564,12 @@
         <v>9.771216666666666</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
       </c>
-      <c r="J731" t="n">
-        <v>9.807</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
       <c r="L731" t="inlineStr">
         <is>
@@ -27327,14 +27603,12 @@
         <v>9.774449999999998</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
       </c>
-      <c r="J732" t="n">
-        <v>9.807</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr">
         <is>
@@ -27368,14 +27642,12 @@
         <v>9.774266666666666</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
       </c>
-      <c r="J733" t="n">
-        <v>9.807</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
       <c r="L733" t="inlineStr">
         <is>
@@ -27682,14 +27954,12 @@
         <v>9.757416666666668</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
       </c>
-      <c r="J741" t="n">
-        <v>9.552</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
       <c r="L741" t="inlineStr">
         <is>
@@ -27723,14 +27993,12 @@
         <v>9.753250000000001</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
       </c>
-      <c r="J742" t="n">
-        <v>9.552</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
       <c r="L742" t="inlineStr">
         <is>
@@ -27764,14 +28032,12 @@
         <v>9.751750000000003</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
       </c>
-      <c r="J743" t="n">
-        <v>9.531000000000001</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
       <c r="L743" t="inlineStr">
         <is>

--- a/BackTest/2020-01-11 BackTest OGO.xlsx
+++ b/BackTest/2020-01-11 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6028,7 +6028,7 @@
         <v>1295976.737643337</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>2888525.46843348</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>2903327.068436706</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>3191389.088136706</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>3078749.063312607</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>3168678.976499768</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>3091563.010999768</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>3240319.634499768</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>2447436.809499768</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2555020.847599768</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>2841863.335664171</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>2821488.027764171</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>2959537.857524613</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>3037004.146524613</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>3433310.152224613</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>3686249.106124613</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>3577432.993424613</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>3607451.080807664</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>2892356.112107664</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>2994591.061407664</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>3146375.794907664</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>3146375.794907664</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>3007020.645407664</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>2615483.527607664</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>2506026.002307664</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>2383908.882707664</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>2383908.882707664</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>2430243.892207664</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>2473425.773007664</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>2265777.554607664</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>2265777.554607664</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>2265777.554607664</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>2167790.235307664</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>2167790.235307664</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>2167790.235307664</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>2173071.582307664</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>2116803.642807664</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>2177595.633607664</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>2211034.729107664</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>3254191.528342969</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>2971948.225542969</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>2971948.225542969</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>3303194.560342968</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>3217641.619342968</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>3244759.423242969</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>3224672.620842969</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>3212456.096142969</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>3251936.239360087</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>3329107.530160087</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>3397876.751460087</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>3397876.751460087</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>3405397.410360087</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>3389403.642460087</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>3165482.121360087</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>3136896.737360087</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>3124705.990760087</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>3146406.650460087</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>3110565.113160087</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>3173891.745160087</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>3173891.745160087</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>3204924.273360088</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>3127413.210560088</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>3096401.270560088</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>3096401.270560088</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>3096401.270560088</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>3140853.481460087</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>3149121.030534699</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>2959301.201396457</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>2959397.201396457</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>2920905.995296457</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>2904677.563396457</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>2690772.456709022</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>2367035.862915305</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>2616393.775521588</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>2595283.630221588</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>2682419.363721588</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>2590025.398221588</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>2836871.551821588</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>2749592.583521588</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>2741306.092721588</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>2741606.092721588</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>2713795.063321588</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>2714492.545221588</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>2714050.941321588</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>2714350.941321588</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>2591265.393721588</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>2419873.586021588</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>2435865.572321588</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>2435865.572321588</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>2261361.193121588</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>1589834.813021588</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>1594101.238321588</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>1594523.484921588</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -20449,167 +20449,149 @@
         <v>-411045.1519060627</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="n">
-        <v>9.631</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>9.452999999999999</v>
+      </c>
+      <c r="C609" t="n">
+        <v>9.441000000000001</v>
+      </c>
+      <c r="D609" t="n">
+        <v>9.629</v>
+      </c>
+      <c r="E609" t="n">
+        <v>9.441000000000001</v>
+      </c>
+      <c r="F609" t="n">
+        <v>115474.2491</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-526519.4010060627</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C610" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D610" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="E610" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="F610" t="n">
+        <v>16230.1791</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-510289.2219060627</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="C611" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="D611" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="E611" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="F611" t="n">
+        <v>30890</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-541179.2219060627</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="C612" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="D612" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="E612" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="F612" t="n">
+        <v>94148.01579999999</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-447031.2061060627</v>
+      </c>
+      <c r="H612" t="n">
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>9.452999999999999</v>
-      </c>
-      <c r="C609" t="n">
-        <v>9.441000000000001</v>
-      </c>
-      <c r="D609" t="n">
-        <v>9.629</v>
-      </c>
-      <c r="E609" t="n">
-        <v>9.441000000000001</v>
-      </c>
-      <c r="F609" t="n">
-        <v>115474.2491</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-526519.4010060627</v>
-      </c>
-      <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="C610" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="D610" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="E610" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="F610" t="n">
-        <v>16230.1791</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-510289.2219060627</v>
-      </c>
-      <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="C611" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="D611" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="E611" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="F611" t="n">
-        <v>30890</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-541179.2219060627</v>
-      </c>
-      <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="C612" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="D612" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="E612" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="F612" t="n">
-        <v>94148.01579999999</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-447031.2061060627</v>
-      </c>
-      <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20638,9 +20620,11 @@
         <v>-279900.4263060627</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>9.628</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -20712,9 +20696,11 @@
         <v>-403912.1893060627</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>9.619999999999999</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -20749,7 +20735,7 @@
         <v>-403912.1893060627</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>9.432</v>
@@ -20788,7 +20774,7 @@
         <v>-401953.1893060627</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="n">
         <v>9.432</v>
@@ -20827,7 +20813,7 @@
         <v>-390675.1893060627</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>9.59</v>
@@ -20866,7 +20852,7 @@
         <v>-467976.2970060627</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>9.6</v>
@@ -20905,7 +20891,7 @@
         <v>-467976.2970060627</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>9.432</v>
@@ -20944,7 +20930,7 @@
         <v>-458642.2970060627</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>9.432</v>
@@ -20983,7 +20969,7 @@
         <v>-641973.3994060627</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>9.579000000000001</v>
@@ -21022,7 +21008,7 @@
         <v>-617973.3994060627</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>9.577999999999999</v>
@@ -21061,7 +21047,7 @@
         <v>-617973.3994060627</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>9.6</v>
@@ -21100,7 +21086,7 @@
         <v>-642355.4951060626</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>9.6</v>
@@ -21139,7 +21125,7 @@
         <v>-642355.4951060626</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>9.579000000000001</v>
@@ -21178,7 +21164,7 @@
         <v>-642355.4951060626</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>9.579000000000001</v>
@@ -21217,7 +21203,7 @@
         <v>-642355.4951060626</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>9.579000000000001</v>
@@ -21256,7 +21242,7 @@
         <v>-666776.1448060626</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>9.579000000000001</v>
@@ -21295,7 +21281,7 @@
         <v>-597438.9616060626</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>9.442</v>
@@ -21334,7 +21320,7 @@
         <v>-597438.9616060626</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>9.444000000000001</v>
@@ -21373,7 +21359,7 @@
         <v>-564090.3222060626</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>9.444000000000001</v>
@@ -21412,7 +21398,7 @@
         <v>-586922.5011060627</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>9.640000000000001</v>
@@ -21451,7 +21437,7 @@
         <v>-295233.3148060627</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>9.460000000000001</v>
@@ -21490,7 +21476,7 @@
         <v>-295353.3148060627</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>9.599</v>
@@ -21529,7 +21515,7 @@
         <v>-41408.99198379836</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>9.449999999999999</v>
@@ -21568,7 +21554,7 @@
         <v>99822.94029239935</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>9.789</v>
@@ -21607,7 +21593,7 @@
         <v>-50191.62618457605</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I638" t="n">
         <v>9.914999999999999</v>
@@ -21868,9 +21854,11 @@
         <v>5315.259789857606</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>9.534000000000001</v>
+      </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -21905,9 +21893,11 @@
         <v>-80588.0993101424</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>10</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -21942,9 +21932,11 @@
         <v>-183274.4288101424</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -21979,9 +21971,11 @@
         <v>-183178.4288101424</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>9.789999999999999</v>
+      </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22090,9 +22084,11 @@
         <v>-286152.0010101424</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>9.789999999999999</v>
+      </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22127,9 +22123,11 @@
         <v>-179761.4502101424</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>9.77</v>
+      </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -22164,9 +22162,11 @@
         <v>-318182.3945101424</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22201,9 +22201,11 @@
         <v>-318182.3945101424</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>9.720000000000001</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22312,9 +22314,11 @@
         <v>-329567.1477101424</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>9.57</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22349,9 +22353,11 @@
         <v>-309267.1477101424</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>9.601000000000001</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22386,9 +22392,11 @@
         <v>-309387.1477101424</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>9.76</v>
+      </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -22423,9 +22431,11 @@
         <v>-309267.1477101424</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>9.603</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22460,9 +22470,11 @@
         <v>-309207.1477101424</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>9.612</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22534,9 +22546,11 @@
         <v>-351533.3981101424</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>9.612</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -22571,9 +22585,11 @@
         <v>-460643.3889101424</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>9.612</v>
+      </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -22608,7 +22624,7 @@
         <v>-460643.3889101424</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>9.601000000000001</v>
@@ -22647,9 +22663,11 @@
         <v>-460643.3889101424</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>9.601000000000001</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -22684,9 +22702,11 @@
         <v>-459296.5673101423</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>9.601000000000001</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -22721,9 +22741,11 @@
         <v>-449123.1775101423</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>9.602</v>
+      </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -22758,9 +22780,11 @@
         <v>-449230.8897101423</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>9.739000000000001</v>
+      </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -22795,9 +22819,11 @@
         <v>-456964.0437101423</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>9.73</v>
+      </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -22832,9 +22858,11 @@
         <v>-548756.9403101424</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>9.728999999999999</v>
+      </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -22906,9 +22934,11 @@
         <v>-799962.0922101424</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>9.531000000000001</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -22943,9 +22973,11 @@
         <v>-795928.0922101424</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>9.52</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -22980,9 +23012,11 @@
         <v>-796313.1112101424</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23017,9 +23051,11 @@
         <v>-810313.1112101424</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>9.698</v>
+      </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -23054,7 +23090,7 @@
         <v>-801542.1112101424</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>9.510999999999999</v>
@@ -23093,7 +23129,7 @@
         <v>-771663.0929101424</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>9.52</v>
@@ -23132,7 +23168,7 @@
         <v>-793019.6619101424</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>9.68</v>
@@ -23171,7 +23207,7 @@
         <v>-793543.6619101424</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>9.5</v>
@@ -23210,7 +23246,7 @@
         <v>-793543.6619101424</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>9.49</v>
@@ -23249,7 +23285,7 @@
         <v>-793543.6619101424</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>9.49</v>
@@ -23288,7 +23324,7 @@
         <v>-892241.8490101424</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>9.49</v>
@@ -23327,7 +23363,7 @@
         <v>-882779.6734101424</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>9.433</v>
@@ -23366,7 +23402,7 @@
         <v>-1129045.801310143</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>9.630000000000001</v>
@@ -23405,7 +23441,7 @@
         <v>-1321140.929210142</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>9.49</v>
@@ -23444,7 +23480,7 @@
         <v>-1304038.095510142</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>9.361000000000001</v>
@@ -23483,7 +23519,7 @@
         <v>-1295487.388710142</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
         <v>9.381</v>
@@ -23522,7 +23558,7 @@
         <v>-1340776.059310142</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>9.609</v>
@@ -23561,9 +23597,11 @@
         <v>-1410481.865510142</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>9.6</v>
+      </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -23598,7 +23636,7 @@
         <v>-1397115.948610142</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>9.371</v>
@@ -23637,7 +23675,7 @@
         <v>-1355848.222310142</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>9.372</v>
@@ -23676,7 +23714,7 @@
         <v>-1829928.968710142</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>9.59</v>
@@ -23715,9 +23753,11 @@
         <v>-1925948.968710142</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>9.57</v>
+      </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -23752,7 +23792,7 @@
         <v>-2015948.304410142</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>9.539999999999999</v>
@@ -23791,9 +23831,11 @@
         <v>-2041948.304410142</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>9.538</v>
+      </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -23828,7 +23870,7 @@
         <v>-2090591.304410142</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>9.5</v>
@@ -23867,7 +23909,7 @@
         <v>-2072591.304410142</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>9.49</v>
@@ -23906,7 +23948,7 @@
         <v>-2062591.304410142</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I699" t="n">
         <v>9.52</v>
@@ -23945,7 +23987,7 @@
         <v>-2062591.304410142</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>9.522</v>
@@ -23984,7 +24026,7 @@
         <v>-2062591.304410142</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>9.522</v>
@@ -24023,7 +24065,7 @@
         <v>-1927457.552918505</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>9.522</v>
@@ -24062,7 +24104,7 @@
         <v>-1947457.552918505</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>9.734</v>
@@ -24101,7 +24143,7 @@
         <v>-1959199.308518505</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>9.6</v>
@@ -24140,7 +24182,7 @@
         <v>-2030489.032618505</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>9.451000000000001</v>
@@ -24179,7 +24221,7 @@
         <v>-2030489.032618505</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>9.403</v>
@@ -24218,7 +24260,7 @@
         <v>-2024489.032618505</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>9.403</v>
@@ -24257,7 +24299,7 @@
         <v>-1904234.032618505</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>9.5</v>
@@ -24296,7 +24338,7 @@
         <v>-1814259.032618505</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>9.51</v>
@@ -24335,7 +24377,7 @@
         <v>-1814259.032618505</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>9.515000000000001</v>
@@ -24374,7 +24416,7 @@
         <v>-1846197.032618505</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>9.515000000000001</v>
@@ -24413,7 +24455,7 @@
         <v>-1495747.892818505</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>9.513999999999999</v>
@@ -24452,7 +24494,7 @@
         <v>-1286136.912818505</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I713" t="n">
         <v>9.638</v>
@@ -24491,7 +24533,7 @@
         <v>-1286136.912818505</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714" t="n">
         <v>9.9</v>
@@ -24530,7 +24572,7 @@
         <v>-1295050.272818505</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
         <v>9.9</v>
@@ -24569,7 +24611,7 @@
         <v>-1271894.230618505</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I716" t="n">
         <v>9.640000000000001</v>
@@ -24608,7 +24650,7 @@
         <v>-1272761.404418505</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
         <v>9.710000000000001</v>
@@ -24647,7 +24689,7 @@
         <v>-1272651.404418505</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>9.603999999999999</v>
@@ -24686,9 +24728,11 @@
         <v>-1272761.404418505</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>9.843</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24723,9 +24767,11 @@
         <v>-1272859.404418505</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>9.815</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24760,9 +24806,11 @@
         <v>-1370554.504518505</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>9.77</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24797,9 +24845,11 @@
         <v>-1369977.681518505</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>9.65</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24834,9 +24884,11 @@
         <v>-1369543.607618505</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24871,9 +24923,11 @@
         <v>-1375763.607618505</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>9.9</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24908,7 +24962,7 @@
         <v>-1375763.607618505</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>9.898999999999999</v>
@@ -24947,9 +25001,11 @@
         <v>-1318165.506313564</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>9.898999999999999</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -24984,7 +25040,7 @@
         <v>-1334309.015808624</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
         <v>9.978999999999999</v>
@@ -25023,7 +25079,7 @@
         <v>-1334087.015808624</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I728" t="n">
         <v>9.711</v>
@@ -25062,11 +25118,9 @@
         <v>-1336000.886008624</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
-      </c>
-      <c r="I729" t="n">
-        <v>9.968999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -25101,7 +25155,7 @@
         <v>-1336000.886008624</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>9.720000000000001</v>
@@ -25140,7 +25194,7 @@
         <v>-1393323.987308624</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I731" t="n">
         <v>9.720000000000001</v>
@@ -25179,7 +25233,7 @@
         <v>-1393019.289708624</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I732" t="n">
         <v>9.613</v>
@@ -25218,7 +25272,7 @@
         <v>-1393239.289708624</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I733" t="n">
         <v>9.818</v>
@@ -25257,9 +25311,11 @@
         <v>-1396704.674108624</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>9.817</v>
+      </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25294,7 +25350,7 @@
         <v>-1396704.674108624</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I735" t="n">
         <v>9.81</v>
@@ -25333,7 +25389,7 @@
         <v>-1409368.775908624</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I736" t="n">
         <v>9.81</v>
@@ -25372,9 +25428,11 @@
         <v>-1408983.775908624</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>9.614000000000001</v>
+      </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -25409,7 +25467,7 @@
         <v>-1408983.775908624</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I738" t="n">
         <v>9.81</v>
@@ -25448,9 +25506,11 @@
         <v>-1410443.848108624</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25485,9 +25545,11 @@
         <v>-1410291.219508624</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25522,9 +25584,11 @@
         <v>-1430549.343508624</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -25596,9 +25660,11 @@
         <v>-1440841.048008624</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>9.641</v>
+      </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25633,9 +25699,11 @@
         <v>-1440621.048008624</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>9.798</v>
+      </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25670,9 +25738,11 @@
         <v>-1440830.072208624</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>9.798999999999999</v>
+      </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -25707,9 +25777,11 @@
         <v>-2029327.981908624</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>9.798</v>
+      </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25744,9 +25816,11 @@
         <v>-2029327.981908624</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>9.67</v>
+      </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25781,9 +25855,11 @@
         <v>-2039949.686508624</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>9.67</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25818,9 +25894,11 @@
         <v>-2039949.686508624</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>9.661</v>
+      </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -25855,9 +25933,11 @@
         <v>-2026283.397408624</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>9.661</v>
+      </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -25892,9 +25972,11 @@
         <v>-2162821.127408625</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>9.789999999999999</v>
+      </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -25929,9 +26011,11 @@
         <v>-2162271.127408625</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>9.662000000000001</v>
+      </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -25966,9 +26050,11 @@
         <v>-2189679.536308625</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>9.858000000000001</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -26003,9 +26089,11 @@
         <v>-2189184.536308625</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -26040,9 +26128,11 @@
         <v>-2196703.808808625</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -26077,9 +26167,11 @@
         <v>-2181239.536208625</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>9.662000000000001</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -26114,9 +26206,11 @@
         <v>-2217165.536208625</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>9.701000000000001</v>
+      </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -26151,9 +26245,11 @@
         <v>-2217110.536208625</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -26188,9 +26284,11 @@
         <v>-2218412.833208625</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -26225,9 +26323,11 @@
         <v>-2238412.833208625</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>9.752000000000001</v>
+      </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -26262,9 +26362,11 @@
         <v>-2219463.833208625</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -26299,9 +26401,11 @@
         <v>-2219463.833208625</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>9.839</v>
+      </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -26336,9 +26440,11 @@
         <v>-2218085.833208625</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>9.839</v>
+      </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -26373,9 +26479,11 @@
         <v>-2201865.685708625</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -26447,9 +26555,11 @@
         <v>-2137730.396608625</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -26743,9 +26853,11 @@
         <v>-2100126.374908625</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>9.68</v>
+      </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26780,9 +26892,11 @@
         <v>-2147708.555308625</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>9.884</v>
+      </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -26817,9 +26931,11 @@
         <v>-2226421.276808625</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>9.869999999999999</v>
+      </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26854,9 +26970,11 @@
         <v>-2178918.276808625</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>9.84</v>
+      </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -26891,9 +27009,11 @@
         <v>-2178918.276808625</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -27039,9 +27159,11 @@
         <v>-2325180.321208625</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>9.66</v>
+      </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -27076,9 +27198,11 @@
         <v>-2325180.321208625</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>9.641</v>
+      </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -27113,9 +27237,11 @@
         <v>-2307031.938308625</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>9.641</v>
+      </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -27150,9 +27276,11 @@
         <v>-2309031.938308625</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>9.842000000000001</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -27187,9 +27315,11 @@
         <v>-2417760.938308625</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>9.83</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -27224,9 +27354,11 @@
         <v>-2417760.938308625</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>9.818</v>
+      </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -27298,9 +27430,11 @@
         <v>-2449886.384808625</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>9.619999999999999</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -27335,9 +27469,11 @@
         <v>-2444875.384808625</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>9.619999999999999</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -27372,9 +27508,11 @@
         <v>-2444875.384808625</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>9.807</v>
+      </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -27409,9 +27547,11 @@
         <v>-2444875.384808625</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>9.807</v>
+      </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -27446,9 +27586,11 @@
         <v>-2862729.999408625</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>9.807</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -27520,9 +27662,11 @@
         <v>-2989688.240908625</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>9.789999999999999</v>
+      </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -27557,9 +27701,11 @@
         <v>-2986520.343308625</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>9.603</v>
+      </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -27594,9 +27740,11 @@
         <v>-2986729.367508625</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>9.76</v>
+      </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -27631,9 +27779,11 @@
         <v>-3170758.450008625</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>9.603</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27668,7 +27818,7 @@
         <v>-3397914.925408625</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I799" t="n">
         <v>9.602</v>
@@ -27707,7 +27857,7 @@
         <v>-3418173.049408624</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>9.555</v>
@@ -27746,7 +27896,7 @@
         <v>-3752595.679508625</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>9.551</v>
@@ -27785,7 +27935,7 @@
         <v>-3236516.816708624</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I802" t="n">
         <v>9.550000000000001</v>
@@ -27824,7 +27974,7 @@
         <v>-3192709.816708624</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I803" t="n">
         <v>9.551</v>
@@ -27863,7 +28013,7 @@
         <v>-2963472.816708624</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I804" t="n">
         <v>9.718999999999999</v>
@@ -27902,7 +28052,7 @@
         <v>-2931409.816808624</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I805" t="n">
         <v>9.734</v>
@@ -27941,9 +28091,11 @@
         <v>-2949409.816808624</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>9.855</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27978,9 +28130,11 @@
         <v>-2949409.816808624</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>9.82</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -28015,9 +28169,11 @@
         <v>-2878000.816808624</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>9.82</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -28052,9 +28208,11 @@
         <v>-2682855.816808624</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>9.829000000000001</v>
+      </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -28089,7 +28247,7 @@
         <v>-2682855.816808624</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I810" t="n">
         <v>9.853</v>
@@ -28128,7 +28286,7 @@
         <v>-2687763.723608624</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I811" t="n">
         <v>9.853</v>
@@ -28167,11 +28325,9 @@
         <v>-2692639.758708624</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
-      </c>
-      <c r="I812" t="n">
-        <v>9.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -28206,9 +28362,11 @@
         <v>-2687539.758708624</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>9.849</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -28243,7 +28401,7 @@
         <v>-2687539.758708624</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>9.851000000000001</v>
@@ -28282,9 +28440,11 @@
         <v>-2687539.758708624</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>9.851000000000001</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -28319,9 +28479,11 @@
         <v>-3173808.59591453</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>9.851000000000001</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -28356,9 +28518,11 @@
         <v>-3219770.736093723</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>9.849</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -28393,9 +28557,11 @@
         <v>-3227474.736093723</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>9.819000000000001</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -28467,9 +28633,11 @@
         <v>-3181366.736093723</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -28504,9 +28672,11 @@
         <v>-3181366.736093723</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>9.798999999999999</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -28541,9 +28711,11 @@
         <v>-3181366.736093723</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>9.798999999999999</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -28578,9 +28750,11 @@
         <v>-3209292.736093723</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>9.798999999999999</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -28615,9 +28789,11 @@
         <v>-3209292.736093723</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>9.651</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -28652,9 +28828,11 @@
         <v>-3273672.178293723</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>9.651</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -28689,7 +28867,7 @@
         <v>-3519228.095193723</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I826" t="n">
         <v>9.542</v>
@@ -28728,7 +28906,7 @@
         <v>-3518219.095193723</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I827" t="n">
         <v>9.462</v>
@@ -28767,7 +28945,7 @@
         <v>-3520197.211393723</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I828" t="n">
         <v>9.720000000000001</v>
@@ -28806,9 +28984,11 @@
         <v>-3695454.348493723</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>9.5</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28821,6 +29001,6 @@
       <c r="M829" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest OGO.xlsx
+++ b/BackTest/2020-01-11 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>1774344.338376916</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1676829.557576916</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>443320.2476848934</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>438249.7300244385</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>288637.4876244385</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>870992.0889334134</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1323656.110970095</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>592544.9528240778</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>605118.9846023386</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>589118.9846023386</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>146646.3555023386</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>197802.1761023386</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>92646.94410233862</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>43031.75700233862</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>43031.75700233862</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>3168678.976499768</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>3091563.010999768</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>3240319.634499768</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>2447436.809499768</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2555020.847599768</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>2841863.335664171</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>2821488.027764171</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>2959537.857524613</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>3037004.146524613</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>3433310.152224613</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>3686249.106124613</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>3577432.993424613</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>3607451.080807664</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>2892356.112107664</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>2994591.061407664</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>3146375.794907664</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>3146375.794907664</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>3007020.645407664</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>2615483.527607664</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>2506026.002307664</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>2383908.882707664</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>2383908.882707664</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>2430243.892207664</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>2473425.773007664</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>2265777.554607664</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>2265777.554607664</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>2265777.554607664</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>2167790.235307664</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>2167790.235307664</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>2167790.235307664</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>2173071.582307664</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>2116803.642807664</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>2177595.633607664</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>2211034.729107664</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>3254191.528342969</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>2971948.225542969</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>2971948.225542969</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>3303194.560342968</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>3217641.619342968</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>3244759.423242969</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>3224672.620842969</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>3212456.096142969</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>3251936.239360087</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>3329107.530160087</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>3397876.751460087</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>3397876.751460087</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>3405397.410360087</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>3389403.642460087</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>3165482.121360087</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>3136896.737360087</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>3124705.990760087</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>3146406.650460087</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>3110565.113160087</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>3173891.745160087</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>3173891.745160087</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>3204924.273360088</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>3127413.210560088</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>3096401.270560088</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>3096401.270560088</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>3096401.270560088</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>3140853.481460087</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>3149121.030534699</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>2959301.201396457</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>2959397.201396457</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>2920905.995296457</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>2904677.563396457</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>2690772.456709022</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>2367035.862915305</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>2616393.775521588</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>2595283.630221588</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>2682419.363721588</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>2590025.398221588</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>2836871.551821588</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>2749592.583521588</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>2741306.092721588</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>2741606.092721588</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>2713795.063321588</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>2714492.545221588</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>2714050.941321588</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>2714350.941321588</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>2591265.393721588</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>2419873.586021588</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>2435865.572321588</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>2435865.572321588</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>2261361.193121588</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>1589834.813021588</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>1594101.238321588</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>1594523.484921588</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -20581,3735 +20581,3185 @@
         <v>-447031.2061060627</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="C613" t="n">
+        <v>9.629</v>
+      </c>
+      <c r="D613" t="n">
+        <v>9.629</v>
+      </c>
+      <c r="E613" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="F613" t="n">
+        <v>167130.7798</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-279900.4263060627</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C614" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D614" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="E614" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F614" t="n">
+        <v>48847.5008</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-328747.9271060627</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C615" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="D615" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E615" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="F615" t="n">
+        <v>75164.2622</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-403912.1893060627</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="C616" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="D616" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="E616" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="F616" t="n">
+        <v>24750.8689</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-403912.1893060627</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C617" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="D617" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="E617" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1959</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-401953.1893060627</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="C618" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D618" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E618" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="F618" t="n">
+        <v>11278</v>
+      </c>
+      <c r="G618" t="n">
+        <v>-390675.1893060627</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="C619" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="D619" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="E619" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="F619" t="n">
+        <v>77301.10769999999</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-467976.2970060627</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="C620" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="D620" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="E620" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="F620" t="n">
+        <v>80283.83289999999</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-467976.2970060627</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="C621" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D621" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="E621" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="F621" t="n">
+        <v>9334</v>
+      </c>
+      <c r="G621" t="n">
+        <v>-458642.2970060627</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>9.577999999999999</v>
+      </c>
+      <c r="C622" t="n">
+        <v>9.577999999999999</v>
+      </c>
+      <c r="D622" t="n">
+        <v>9.577999999999999</v>
+      </c>
+      <c r="E622" t="n">
+        <v>9.577999999999999</v>
+      </c>
+      <c r="F622" t="n">
+        <v>183331.1024</v>
+      </c>
+      <c r="G622" t="n">
+        <v>-641973.3994060627</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="n">
+        <v>1</v>
+      </c>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C623" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D623" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E623" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F623" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G623" t="n">
+        <v>-617973.3994060627</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C624" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D624" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E624" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F624" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G624" t="n">
+        <v>-617973.3994060627</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="n">
+        <v>1</v>
+      </c>
+      <c r="M624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="C625" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D625" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="E625" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="F625" t="n">
+        <v>24382.0957</v>
+      </c>
+      <c r="G625" t="n">
+        <v>-642355.4951060626</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="n">
+        <v>1</v>
+      </c>
+      <c r="M625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C626" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D626" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E626" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="F626" t="n">
+        <v>79521.2977</v>
+      </c>
+      <c r="G626" t="n">
+        <v>-642355.4951060626</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="C627" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D627" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="E627" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1761.2747</v>
+      </c>
+      <c r="G627" t="n">
+        <v>-642355.4951060626</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="n">
+        <v>1</v>
+      </c>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="C628" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="D628" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="E628" t="n">
+        <v>9.579000000000001</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2779.8069</v>
+      </c>
+      <c r="G628" t="n">
+        <v>-642355.4951060626</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C629" t="n">
+        <v>9.442</v>
+      </c>
+      <c r="D629" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E629" t="n">
+        <v>9.442</v>
+      </c>
+      <c r="F629" t="n">
+        <v>24420.6497</v>
+      </c>
+      <c r="G629" t="n">
+        <v>-666776.1448060626</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C630" t="n">
+        <v>9.444000000000001</v>
+      </c>
+      <c r="D630" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E630" t="n">
+        <v>9.444000000000001</v>
+      </c>
+      <c r="F630" t="n">
+        <v>69337.1832</v>
+      </c>
+      <c r="G630" t="n">
+        <v>-597438.9616060626</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>9.444000000000001</v>
+      </c>
+      <c r="C631" t="n">
+        <v>9.444000000000001</v>
+      </c>
+      <c r="D631" t="n">
+        <v>9.444000000000001</v>
+      </c>
+      <c r="E631" t="n">
+        <v>9.444000000000001</v>
+      </c>
+      <c r="F631" t="n">
+        <v>32090.6707</v>
+      </c>
+      <c r="G631" t="n">
+        <v>-597438.9616060626</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="n">
+        <v>1</v>
+      </c>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>9.445</v>
+      </c>
+      <c r="C632" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D632" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E632" t="n">
+        <v>9.445</v>
+      </c>
+      <c r="F632" t="n">
+        <v>33348.6394</v>
+      </c>
+      <c r="G632" t="n">
+        <v>-564090.3222060626</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="C633" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D633" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="E633" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="F633" t="n">
+        <v>22832.1789</v>
+      </c>
+      <c r="G633" t="n">
+        <v>-586922.5011060627</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>9.445</v>
+      </c>
+      <c r="C634" t="n">
+        <v>9.599</v>
+      </c>
+      <c r="D634" t="n">
+        <v>9.599</v>
+      </c>
+      <c r="E634" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="F634" t="n">
+        <v>291689.1863</v>
+      </c>
+      <c r="G634" t="n">
+        <v>-295233.3148060627</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>9.504</v>
+      </c>
+      <c r="C635" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D635" t="n">
+        <v>9.504</v>
+      </c>
+      <c r="E635" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F635" t="n">
+        <v>120</v>
+      </c>
+      <c r="G635" t="n">
+        <v>-295353.3148060627</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>9.465999999999999</v>
+      </c>
+      <c r="C636" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="D636" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="E636" t="n">
+        <v>9.465999999999999</v>
+      </c>
+      <c r="F636" t="n">
+        <v>253944.3228222643</v>
+      </c>
+      <c r="G636" t="n">
+        <v>-41408.99198379836</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>9.699</v>
+      </c>
+      <c r="C637" t="n">
+        <v>9.914999999999999</v>
+      </c>
+      <c r="D637" t="n">
+        <v>9.914999999999999</v>
+      </c>
+      <c r="E637" t="n">
+        <v>9.699</v>
+      </c>
+      <c r="F637" t="n">
+        <v>141231.9322761977</v>
+      </c>
+      <c r="G637" t="n">
+        <v>99822.94029239935</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>9.914</v>
+      </c>
+      <c r="C638" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D638" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E638" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F638" t="n">
+        <v>150014.5664769754</v>
+      </c>
+      <c r="G638" t="n">
+        <v>-50191.62618457605</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C639" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D639" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E639" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1091.2372</v>
+      </c>
+      <c r="G639" t="n">
+        <v>-49100.38898457604</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C640" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D640" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E640" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="F640" t="n">
+        <v>2496.21359223301</v>
+      </c>
+      <c r="G640" t="n">
+        <v>-51596.60257680905</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C641" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="D641" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="E641" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="F641" t="n">
+        <v>300</v>
+      </c>
+      <c r="G641" t="n">
+        <v>-51896.60257680905</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="C642" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="D642" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="E642" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F642" t="n">
+        <v>22729.6362</v>
+      </c>
+      <c r="G642" t="n">
+        <v>-29166.96637680905</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="C643" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="D643" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="E643" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="F643" t="n">
+        <v>18977.2915</v>
+      </c>
+      <c r="G643" t="n">
+        <v>-48144.25787680905</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>9.701000000000001</v>
+      </c>
+      <c r="C644" t="n">
+        <v>9.534000000000001</v>
+      </c>
+      <c r="D644" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E644" t="n">
+        <v>9.534000000000001</v>
+      </c>
+      <c r="F644" t="n">
+        <v>93261.63993333334</v>
+      </c>
+      <c r="G644" t="n">
+        <v>-141405.8978101424</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>9.699</v>
+      </c>
+      <c r="C645" t="n">
+        <v>10</v>
+      </c>
+      <c r="D645" t="n">
+        <v>10</v>
+      </c>
+      <c r="E645" t="n">
+        <v>9.541</v>
+      </c>
+      <c r="F645" t="n">
+        <v>146721.1576</v>
+      </c>
+      <c r="G645" t="n">
+        <v>5315.259789857606</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>9.991</v>
+      </c>
+      <c r="C646" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D646" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E646" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F646" t="n">
+        <v>85903.3591</v>
+      </c>
+      <c r="G646" t="n">
+        <v>-80588.0993101424</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C647" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D647" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="E647" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F647" t="n">
+        <v>102686.3295</v>
+      </c>
+      <c r="G647" t="n">
+        <v>-183274.4288101424</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="C648" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="D648" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="E648" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="F648" t="n">
+        <v>96</v>
+      </c>
+      <c r="G648" t="n">
+        <v>-183178.4288101424</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C649" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D649" t="n">
+        <v>10</v>
+      </c>
+      <c r="E649" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F649" t="n">
+        <v>100956.5856</v>
+      </c>
+      <c r="G649" t="n">
+        <v>-284135.0144101424</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C650" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D650" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E650" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F650" t="n">
+        <v>16.9866</v>
+      </c>
+      <c r="G650" t="n">
+        <v>-284152.0010101424</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="C651" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D651" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="E651" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="F651" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G651" t="n">
+        <v>-286152.0010101424</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C652" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D652" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E652" t="n">
+        <v>9.643000000000001</v>
+      </c>
+      <c r="F652" t="n">
+        <v>106390.5508</v>
+      </c>
+      <c r="G652" t="n">
+        <v>-179761.4502101424</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>9.603</v>
+      </c>
+      <c r="C653" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D653" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="E653" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="F653" t="n">
+        <v>138420.9443</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-318182.3945101424</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="C654" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D654" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="E654" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F654" t="n">
+        <v>5936</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-318182.3945101424</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="C655" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D655" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="E655" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F655" t="n">
+        <v>134968.9443</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-453151.3388101424</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="C656" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="D656" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="E656" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G656" t="n">
+        <v>-454151.3388101424</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>9.707000000000001</v>
+      </c>
+      <c r="C657" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="D657" t="n">
+        <v>9.707000000000001</v>
+      </c>
+      <c r="E657" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="F657" t="n">
+        <v>124584.1911</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-329567.1477101424</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>9.707000000000001</v>
+      </c>
+      <c r="C658" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D658" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="E658" t="n">
+        <v>9.707000000000001</v>
+      </c>
+      <c r="F658" t="n">
+        <v>20300</v>
+      </c>
+      <c r="G658" t="n">
+        <v>-309267.1477101424</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="n">
+        <v>1</v>
+      </c>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="C659" t="n">
+        <v>9.603</v>
+      </c>
+      <c r="D659" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="E659" t="n">
+        <v>9.603</v>
+      </c>
+      <c r="F659" t="n">
+        <v>120</v>
+      </c>
+      <c r="G659" t="n">
+        <v>-309387.1477101424</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="n">
+        <v>1</v>
+      </c>
+      <c r="M659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>9.603999999999999</v>
+      </c>
+      <c r="C660" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="D660" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="E660" t="n">
+        <v>9.603999999999999</v>
+      </c>
+      <c r="F660" t="n">
+        <v>120</v>
+      </c>
+      <c r="G660" t="n">
+        <v>-309267.1477101424</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="n">
+        <v>1</v>
+      </c>
+      <c r="M660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="C661" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="D661" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="E661" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="F661" t="n">
+        <v>60</v>
+      </c>
+      <c r="G661" t="n">
+        <v>-309207.1477101424</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="n">
+        <v>1</v>
+      </c>
+      <c r="M661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="C662" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="D662" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="E662" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="F662" t="n">
+        <v>42326.2504</v>
+      </c>
+      <c r="G662" t="n">
+        <v>-351533.3981101424</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="n">
+        <v>1</v>
+      </c>
+      <c r="M662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>9.615</v>
+      </c>
+      <c r="C663" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="D663" t="n">
+        <v>9.615</v>
+      </c>
+      <c r="E663" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="F663" t="n">
+        <v>48602.6223</v>
+      </c>
+      <c r="G663" t="n">
+        <v>-351533.3981101424</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="n">
+        <v>1</v>
+      </c>
+      <c r="M663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="C664" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="D664" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="E664" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="F664" t="n">
+        <v>109109.9908</v>
+      </c>
+      <c r="G664" t="n">
+        <v>-460643.3889101424</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="n">
+        <v>1</v>
+      </c>
+      <c r="M664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="C665" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="D665" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="E665" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="F665" t="n">
+        <v>5373.6928</v>
+      </c>
+      <c r="G665" t="n">
+        <v>-460643.3889101424</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="n">
+        <v>1</v>
+      </c>
+      <c r="M665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="C666" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="D666" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="E666" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="F666" t="n">
+        <v>20240</v>
+      </c>
+      <c r="G666" t="n">
+        <v>-460643.3889101424</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="n">
+        <v>1</v>
+      </c>
+      <c r="M666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="C667" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="D667" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="E667" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1346.8216</v>
+      </c>
+      <c r="G667" t="n">
+        <v>-459296.5673101423</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="n">
+        <v>1</v>
+      </c>
+      <c r="M667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="C668" t="n">
+        <v>9.739000000000001</v>
+      </c>
+      <c r="D668" t="n">
+        <v>9.739000000000001</v>
+      </c>
+      <c r="E668" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="F668" t="n">
+        <v>10173.3898</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-449123.1775101423</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C669" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D669" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E669" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F669" t="n">
+        <v>107.7122</v>
+      </c>
+      <c r="G669" t="n">
+        <v>-449230.8897101423</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="n">
+        <v>1</v>
+      </c>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="C670" t="n">
+        <v>9.728999999999999</v>
+      </c>
+      <c r="D670" t="n">
+        <v>9.728999999999999</v>
+      </c>
+      <c r="E670" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F670" t="n">
+        <v>7733.154</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-456964.0437101423</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>9.728999999999999</v>
+      </c>
+      <c r="C671" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="D671" t="n">
+        <v>9.728999999999999</v>
+      </c>
+      <c r="E671" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="F671" t="n">
+        <v>91792.89659999999</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-548756.9403101424</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C672" t="n">
+        <v>9.531000000000001</v>
+      </c>
+      <c r="D672" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E672" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F672" t="n">
+        <v>214442.646</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-763199.5863101424</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C673" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D673" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E673" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F673" t="n">
+        <v>36762.5059</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-799962.0922101424</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C674" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D674" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E674" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F674" t="n">
+        <v>4034</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-795928.0922101424</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="C675" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="D675" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="E675" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="F675" t="n">
+        <v>385.019</v>
+      </c>
+      <c r="G675" t="n">
+        <v>-796313.1112101424</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C676" t="n">
+        <v>9.510999999999999</v>
+      </c>
+      <c r="D676" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E676" t="n">
+        <v>9.510999999999999</v>
+      </c>
+      <c r="F676" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G676" t="n">
+        <v>-810313.1112101424</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C677" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D677" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E677" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F677" t="n">
+        <v>8771</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-801542.1112101424</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>9.510999999999999</v>
+      </c>
+      <c r="C678" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="D678" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="E678" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="F678" t="n">
+        <v>29879.0183</v>
+      </c>
+      <c r="G678" t="n">
+        <v>-771663.0929101424</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="C679" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D679" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="E679" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F679" t="n">
+        <v>21356.569</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-793019.6619101424</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="C680" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D680" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="E680" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="F680" t="n">
+        <v>524</v>
+      </c>
+      <c r="G680" t="n">
+        <v>-793543.6619101424</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>9.491</v>
+      </c>
+      <c r="C681" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D681" t="n">
+        <v>9.491</v>
+      </c>
+      <c r="E681" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="F681" t="n">
+        <v>21337.8244</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-793543.6619101424</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="C682" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D682" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="E682" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="F682" t="n">
+        <v>662</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-793543.6619101424</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="n">
+        <v>1</v>
+      </c>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
         <v>9.451000000000001</v>
       </c>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
+      <c r="C683" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="D683" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="E683" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="F683" t="n">
+        <v>98698.1871</v>
+      </c>
+      <c r="G683" t="n">
+        <v>-892241.8490101424</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="n">
+        <v>1</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="C684" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D684" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="E684" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="F684" t="n">
+        <v>9462.1756</v>
+      </c>
+      <c r="G684" t="n">
+        <v>-882779.6734101424</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C685" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D685" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E685" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="F685" t="n">
+        <v>246266.1279</v>
+      </c>
+      <c r="G685" t="n">
+        <v>-1129045.801310143</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="C686" t="n">
+        <v>9.361000000000001</v>
+      </c>
+      <c r="D686" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="E686" t="n">
+        <v>9.361000000000001</v>
+      </c>
+      <c r="F686" t="n">
+        <v>192095.1279</v>
+      </c>
+      <c r="G686" t="n">
+        <v>-1321140.929210142</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>9.381</v>
+      </c>
+      <c r="C687" t="n">
+        <v>9.381</v>
+      </c>
+      <c r="D687" t="n">
+        <v>9.381</v>
+      </c>
+      <c r="E687" t="n">
+        <v>9.381</v>
+      </c>
+      <c r="F687" t="n">
+        <v>17102.8337</v>
+      </c>
+      <c r="G687" t="n">
+        <v>-1304038.095510142</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C688" t="n">
+        <v>9.609</v>
+      </c>
+      <c r="D688" t="n">
+        <v>9.609</v>
+      </c>
+      <c r="E688" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F688" t="n">
+        <v>8550.7068</v>
+      </c>
+      <c r="G688" t="n">
+        <v>-1295487.388710142</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="C689" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D689" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E689" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F689" t="n">
+        <v>45288.6706</v>
+      </c>
+      <c r="G689" t="n">
+        <v>-1340776.059310142</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C690" t="n">
+        <v>9.371</v>
+      </c>
+      <c r="D690" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="E690" t="n">
+        <v>9.371</v>
+      </c>
+      <c r="F690" t="n">
+        <v>69705.80620000001</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-1410481.865510142</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C691" t="n">
+        <v>9.372</v>
+      </c>
+      <c r="D691" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="E691" t="n">
+        <v>9.372</v>
+      </c>
+      <c r="F691" t="n">
+        <v>13365.9169</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-1397115.948610142</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>9.372</v>
+      </c>
+      <c r="C692" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="D692" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="E692" t="n">
+        <v>9.372</v>
+      </c>
+      <c r="F692" t="n">
+        <v>41267.7263</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-1355848.222310142</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>9.569000000000001</v>
+      </c>
+      <c r="C693" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="D693" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="E693" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="F693" t="n">
+        <v>474080.7464</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-1829928.968710142</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C694" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="D694" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="E694" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F694" t="n">
+        <v>96020</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-1925948.968710142</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="n">
+        <v>1</v>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="C695" t="n">
+        <v>9.538</v>
+      </c>
+      <c r="D695" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="E695" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="F695" t="n">
+        <v>89999.3357</v>
+      </c>
+      <c r="G695" t="n">
+        <v>-2015948.304410142</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="n">
+        <v>1</v>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>9.515000000000001</v>
+      </c>
+      <c r="C696" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D696" t="n">
+        <v>9.515000000000001</v>
+      </c>
+      <c r="E696" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F696" t="n">
+        <v>26000</v>
+      </c>
+      <c r="G696" t="n">
+        <v>-2041948.304410142</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C697" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D697" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E697" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="F697" t="n">
+        <v>48643</v>
+      </c>
+      <c r="G697" t="n">
+        <v>-2090591.304410142</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="C698" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D698" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E698" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="F698" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-2072591.304410142</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C699" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="D699" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="E699" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F699" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-2062591.304410142</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="C700" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="D700" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="E700" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F700" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G700" t="n">
+        <v>-2062591.304410142</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="n">
+        <v>1</v>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="C701" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="D701" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="E701" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="F701" t="n">
+        <v>85062</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-2062591.304410142</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="n">
+        <v>1</v>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="C702" t="n">
+        <v>9.734</v>
+      </c>
+      <c r="D702" t="n">
+        <v>9.734</v>
+      </c>
+      <c r="E702" t="n">
+        <v>9.522</v>
+      </c>
+      <c r="F702" t="n">
+        <v>135133.7514916376</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-1927457.552918505</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C703" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D703" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E703" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F703" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-1947457.552918505</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="n">
+        <v>1</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="C704" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="D704" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="E704" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="F704" t="n">
+        <v>11741.7556</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-1959199.308518505</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C705" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="D705" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E705" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="F705" t="n">
+        <v>71289.72410000001</v>
+      </c>
+      <c r="G705" t="n">
+        <v>-2030489.032618505</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="C706" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="D706" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="E706" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-2030489.032618505</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C707" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D707" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E707" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F707" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-2024489.032618505</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C708" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="D708" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="E708" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F708" t="n">
+        <v>120255</v>
+      </c>
+      <c r="G708" t="n">
+        <v>-1904234.032618505</v>
+      </c>
+      <c r="H708" t="n">
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="C613" t="n">
-        <v>9.629</v>
-      </c>
-      <c r="D613" t="n">
-        <v>9.629</v>
-      </c>
-      <c r="E613" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="F613" t="n">
-        <v>167130.7798</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-279900.4263060627</v>
-      </c>
-      <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C614" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="D614" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="E614" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F614" t="n">
-        <v>48847.5008</v>
-      </c>
-      <c r="G614" t="n">
-        <v>-328747.9271060627</v>
-      </c>
-      <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C615" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="D615" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="E615" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="F615" t="n">
-        <v>75164.2622</v>
-      </c>
-      <c r="G615" t="n">
-        <v>-403912.1893060627</v>
-      </c>
-      <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="C616" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="D616" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="E616" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="F616" t="n">
-        <v>24750.8689</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-403912.1893060627</v>
-      </c>
-      <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="C617" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="D617" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="E617" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="F617" t="n">
-        <v>1959</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-401953.1893060627</v>
-      </c>
-      <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="C618" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D618" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E618" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="F618" t="n">
-        <v>11278</v>
-      </c>
-      <c r="G618" t="n">
-        <v>-390675.1893060627</v>
-      </c>
-      <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="C619" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="D619" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="E619" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="F619" t="n">
-        <v>77301.10769999999</v>
-      </c>
-      <c r="G619" t="n">
-        <v>-467976.2970060627</v>
-      </c>
-      <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="C620" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="D620" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="E620" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="F620" t="n">
-        <v>80283.83289999999</v>
-      </c>
-      <c r="G620" t="n">
-        <v>-467976.2970060627</v>
-      </c>
-      <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="C621" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="D621" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="E621" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="F621" t="n">
-        <v>9334</v>
-      </c>
-      <c r="G621" t="n">
-        <v>-458642.2970060627</v>
-      </c>
-      <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>9.577999999999999</v>
-      </c>
-      <c r="C622" t="n">
-        <v>9.577999999999999</v>
-      </c>
-      <c r="D622" t="n">
-        <v>9.577999999999999</v>
-      </c>
-      <c r="E622" t="n">
-        <v>9.577999999999999</v>
-      </c>
-      <c r="F622" t="n">
-        <v>183331.1024</v>
-      </c>
-      <c r="G622" t="n">
-        <v>-641973.3994060627</v>
-      </c>
-      <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
-      <c r="M622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="C623" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D623" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E623" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F623" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G623" t="n">
-        <v>-617973.3994060627</v>
-      </c>
-      <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>9.577999999999999</v>
-      </c>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L623" t="n">
-        <v>1</v>
-      </c>
-      <c r="M623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="C624" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D624" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E624" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F624" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G624" t="n">
-        <v>-617973.3994060627</v>
-      </c>
-      <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="C625" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="D625" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="E625" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="F625" t="n">
-        <v>24382.0957</v>
-      </c>
-      <c r="G625" t="n">
-        <v>-642355.4951060626</v>
-      </c>
-      <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L625" t="n">
-        <v>1</v>
-      </c>
-      <c r="M625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="C626" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="D626" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E626" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="F626" t="n">
-        <v>79521.2977</v>
-      </c>
-      <c r="G626" t="n">
-        <v>-642355.4951060626</v>
-      </c>
-      <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L626" t="n">
-        <v>1</v>
-      </c>
-      <c r="M626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="C627" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="D627" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="E627" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="F627" t="n">
-        <v>1761.2747</v>
-      </c>
-      <c r="G627" t="n">
-        <v>-642355.4951060626</v>
-      </c>
-      <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L627" t="n">
-        <v>1</v>
-      </c>
-      <c r="M627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="C628" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="D628" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="E628" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="F628" t="n">
-        <v>2779.8069</v>
-      </c>
-      <c r="G628" t="n">
-        <v>-642355.4951060626</v>
-      </c>
-      <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L628" t="n">
-        <v>1</v>
-      </c>
-      <c r="M628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C629" t="n">
-        <v>9.442</v>
-      </c>
-      <c r="D629" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E629" t="n">
-        <v>9.442</v>
-      </c>
-      <c r="F629" t="n">
-        <v>24420.6497</v>
-      </c>
-      <c r="G629" t="n">
-        <v>-666776.1448060626</v>
-      </c>
-      <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>9.579000000000001</v>
-      </c>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
-      <c r="M629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C630" t="n">
-        <v>9.444000000000001</v>
-      </c>
-      <c r="D630" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E630" t="n">
-        <v>9.444000000000001</v>
-      </c>
-      <c r="F630" t="n">
-        <v>69337.1832</v>
-      </c>
-      <c r="G630" t="n">
-        <v>-597438.9616060626</v>
-      </c>
-      <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>9.442</v>
-      </c>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
-      <c r="M630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>9.444000000000001</v>
-      </c>
-      <c r="C631" t="n">
-        <v>9.444000000000001</v>
-      </c>
-      <c r="D631" t="n">
-        <v>9.444000000000001</v>
-      </c>
-      <c r="E631" t="n">
-        <v>9.444000000000001</v>
-      </c>
-      <c r="F631" t="n">
-        <v>32090.6707</v>
-      </c>
-      <c r="G631" t="n">
-        <v>-597438.9616060626</v>
-      </c>
-      <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>9.444000000000001</v>
-      </c>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L631" t="n">
-        <v>1</v>
-      </c>
-      <c r="M631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>9.445</v>
-      </c>
-      <c r="C632" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="D632" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E632" t="n">
-        <v>9.445</v>
-      </c>
-      <c r="F632" t="n">
-        <v>33348.6394</v>
-      </c>
-      <c r="G632" t="n">
-        <v>-564090.3222060626</v>
-      </c>
-      <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>9.444000000000001</v>
-      </c>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L632" t="n">
-        <v>1</v>
-      </c>
-      <c r="M632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="C633" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="D633" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E633" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="F633" t="n">
-        <v>22832.1789</v>
-      </c>
-      <c r="G633" t="n">
-        <v>-586922.5011060627</v>
-      </c>
-      <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>9.445</v>
-      </c>
-      <c r="C634" t="n">
-        <v>9.599</v>
-      </c>
-      <c r="D634" t="n">
-        <v>9.599</v>
-      </c>
-      <c r="E634" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="F634" t="n">
-        <v>291689.1863</v>
-      </c>
-      <c r="G634" t="n">
-        <v>-295233.3148060627</v>
-      </c>
-      <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>9.504</v>
-      </c>
-      <c r="C635" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D635" t="n">
-        <v>9.504</v>
-      </c>
-      <c r="E635" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F635" t="n">
-        <v>120</v>
-      </c>
-      <c r="G635" t="n">
-        <v>-295353.3148060627</v>
-      </c>
-      <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>9.599</v>
-      </c>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>9.465999999999999</v>
-      </c>
-      <c r="C636" t="n">
-        <v>9.789</v>
-      </c>
-      <c r="D636" t="n">
-        <v>9.789</v>
-      </c>
-      <c r="E636" t="n">
-        <v>9.465999999999999</v>
-      </c>
-      <c r="F636" t="n">
-        <v>253944.3228222643</v>
-      </c>
-      <c r="G636" t="n">
-        <v>-41408.99198379836</v>
-      </c>
-      <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>9.699</v>
-      </c>
-      <c r="C637" t="n">
-        <v>9.914999999999999</v>
-      </c>
-      <c r="D637" t="n">
-        <v>9.914999999999999</v>
-      </c>
-      <c r="E637" t="n">
-        <v>9.699</v>
-      </c>
-      <c r="F637" t="n">
-        <v>141231.9322761977</v>
-      </c>
-      <c r="G637" t="n">
-        <v>99822.94029239935</v>
-      </c>
-      <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>9.789</v>
-      </c>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>9.914</v>
-      </c>
-      <c r="C638" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D638" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="E638" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F638" t="n">
-        <v>150014.5664769754</v>
-      </c>
-      <c r="G638" t="n">
-        <v>-50191.62618457605</v>
-      </c>
-      <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>9.914999999999999</v>
-      </c>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="C639" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="D639" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="E639" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F639" t="n">
-        <v>1091.2372</v>
-      </c>
-      <c r="G639" t="n">
-        <v>-49100.38898457604</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C640" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D640" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E640" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="F640" t="n">
-        <v>2496.21359223301</v>
-      </c>
-      <c r="G640" t="n">
-        <v>-51596.60257680905</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="C641" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="D641" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="E641" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="F641" t="n">
-        <v>300</v>
-      </c>
-      <c r="G641" t="n">
-        <v>-51896.60257680905</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="C642" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="D642" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="E642" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="F642" t="n">
-        <v>22729.6362</v>
-      </c>
-      <c r="G642" t="n">
-        <v>-29166.96637680905</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="C643" t="n">
-        <v>9.611000000000001</v>
-      </c>
-      <c r="D643" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="E643" t="n">
-        <v>9.611000000000001</v>
-      </c>
-      <c r="F643" t="n">
-        <v>18977.2915</v>
-      </c>
-      <c r="G643" t="n">
-        <v>-48144.25787680905</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>9.701000000000001</v>
-      </c>
-      <c r="C644" t="n">
-        <v>9.534000000000001</v>
-      </c>
-      <c r="D644" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="E644" t="n">
-        <v>9.534000000000001</v>
-      </c>
-      <c r="F644" t="n">
-        <v>93261.63993333334</v>
-      </c>
-      <c r="G644" t="n">
-        <v>-141405.8978101424</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>9.699</v>
-      </c>
-      <c r="C645" t="n">
-        <v>10</v>
-      </c>
-      <c r="D645" t="n">
-        <v>10</v>
-      </c>
-      <c r="E645" t="n">
-        <v>9.541</v>
-      </c>
-      <c r="F645" t="n">
-        <v>146721.1576</v>
-      </c>
-      <c r="G645" t="n">
-        <v>5315.259789857606</v>
-      </c>
-      <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>9.534000000000001</v>
-      </c>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>9.991</v>
-      </c>
-      <c r="C646" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D646" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E646" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F646" t="n">
-        <v>85903.3591</v>
-      </c>
-      <c r="G646" t="n">
-        <v>-80588.0993101424</v>
-      </c>
-      <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>10</v>
-      </c>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="C647" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D647" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="E647" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="F647" t="n">
-        <v>102686.3295</v>
-      </c>
-      <c r="G647" t="n">
-        <v>-183274.4288101424</v>
-      </c>
-      <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="C648" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="D648" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="E648" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="F648" t="n">
-        <v>96</v>
-      </c>
-      <c r="G648" t="n">
-        <v>-183178.4288101424</v>
-      </c>
-      <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="C649" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="D649" t="n">
-        <v>10</v>
-      </c>
-      <c r="E649" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F649" t="n">
-        <v>100956.5856</v>
-      </c>
-      <c r="G649" t="n">
-        <v>-284135.0144101424</v>
-      </c>
-      <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="C650" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D650" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="E650" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="F650" t="n">
-        <v>16.9866</v>
-      </c>
-      <c r="G650" t="n">
-        <v>-284152.0010101424</v>
-      </c>
-      <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="C651" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="D651" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="E651" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="F651" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G651" t="n">
-        <v>-286152.0010101424</v>
-      </c>
-      <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C652" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D652" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="E652" t="n">
-        <v>9.643000000000001</v>
-      </c>
-      <c r="F652" t="n">
-        <v>106390.5508</v>
-      </c>
-      <c r="G652" t="n">
-        <v>-179761.4502101424</v>
-      </c>
-      <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>9.603</v>
-      </c>
-      <c r="C653" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="D653" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="E653" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="F653" t="n">
-        <v>138420.9443</v>
-      </c>
-      <c r="G653" t="n">
-        <v>-318182.3945101424</v>
-      </c>
-      <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="C654" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="D654" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="E654" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="F654" t="n">
-        <v>5936</v>
-      </c>
-      <c r="G654" t="n">
-        <v>-318182.3945101424</v>
-      </c>
-      <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="C655" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D655" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="E655" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F655" t="n">
-        <v>134968.9443</v>
-      </c>
-      <c r="G655" t="n">
-        <v>-453151.3388101424</v>
-      </c>
-      <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="C656" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="D656" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="E656" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="F656" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G656" t="n">
-        <v>-454151.3388101424</v>
-      </c>
-      <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>9.707000000000001</v>
-      </c>
-      <c r="C657" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="D657" t="n">
-        <v>9.707000000000001</v>
-      </c>
-      <c r="E657" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="F657" t="n">
-        <v>124584.1911</v>
-      </c>
-      <c r="G657" t="n">
-        <v>-329567.1477101424</v>
-      </c>
-      <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>9.707000000000001</v>
-      </c>
-      <c r="C658" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="D658" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="E658" t="n">
-        <v>9.707000000000001</v>
-      </c>
-      <c r="F658" t="n">
-        <v>20300</v>
-      </c>
-      <c r="G658" t="n">
-        <v>-309267.1477101424</v>
-      </c>
-      <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L658" t="n">
-        <v>1</v>
-      </c>
-      <c r="M658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>9.611000000000001</v>
-      </c>
-      <c r="C659" t="n">
-        <v>9.603</v>
-      </c>
-      <c r="D659" t="n">
-        <v>9.611000000000001</v>
-      </c>
-      <c r="E659" t="n">
-        <v>9.603</v>
-      </c>
-      <c r="F659" t="n">
-        <v>120</v>
-      </c>
-      <c r="G659" t="n">
-        <v>-309387.1477101424</v>
-      </c>
-      <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L659" t="n">
-        <v>1</v>
-      </c>
-      <c r="M659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="n">
-        <v>9.603999999999999</v>
-      </c>
-      <c r="C660" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="D660" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="E660" t="n">
-        <v>9.603999999999999</v>
-      </c>
-      <c r="F660" t="n">
-        <v>120</v>
-      </c>
-      <c r="G660" t="n">
-        <v>-309267.1477101424</v>
-      </c>
-      <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>9.603</v>
-      </c>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L660" t="n">
-        <v>1</v>
-      </c>
-      <c r="M660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="n">
-        <v>9.759</v>
-      </c>
-      <c r="C661" t="n">
-        <v>9.759</v>
-      </c>
-      <c r="D661" t="n">
-        <v>9.759</v>
-      </c>
-      <c r="E661" t="n">
-        <v>9.759</v>
-      </c>
-      <c r="F661" t="n">
-        <v>60</v>
-      </c>
-      <c r="G661" t="n">
-        <v>-309207.1477101424</v>
-      </c>
-      <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L661" t="n">
-        <v>1</v>
-      </c>
-      <c r="M661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="C662" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="D662" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="E662" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="F662" t="n">
-        <v>42326.2504</v>
-      </c>
-      <c r="G662" t="n">
-        <v>-351533.3981101424</v>
-      </c>
-      <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L662" t="n">
-        <v>1</v>
-      </c>
-      <c r="M662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="n">
-        <v>9.615</v>
-      </c>
-      <c r="C663" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="D663" t="n">
-        <v>9.615</v>
-      </c>
-      <c r="E663" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="F663" t="n">
-        <v>48602.6223</v>
-      </c>
-      <c r="G663" t="n">
-        <v>-351533.3981101424</v>
-      </c>
-      <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L663" t="n">
-        <v>1</v>
-      </c>
-      <c r="M663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="C664" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="D664" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="E664" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="F664" t="n">
-        <v>109109.9908</v>
-      </c>
-      <c r="G664" t="n">
-        <v>-460643.3889101424</v>
-      </c>
-      <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L664" t="n">
-        <v>1</v>
-      </c>
-      <c r="M664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="C665" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="D665" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="E665" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="F665" t="n">
-        <v>5373.6928</v>
-      </c>
-      <c r="G665" t="n">
-        <v>-460643.3889101424</v>
-      </c>
-      <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
-      <c r="M665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="C666" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="D666" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="E666" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="F666" t="n">
-        <v>20240</v>
-      </c>
-      <c r="G666" t="n">
-        <v>-460643.3889101424</v>
-      </c>
-      <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L666" t="n">
-        <v>1</v>
-      </c>
-      <c r="M666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="C667" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="D667" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="E667" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="F667" t="n">
-        <v>1346.8216</v>
-      </c>
-      <c r="G667" t="n">
-        <v>-459296.5673101423</v>
-      </c>
-      <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L667" t="n">
-        <v>1</v>
-      </c>
-      <c r="M667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="C668" t="n">
-        <v>9.739000000000001</v>
-      </c>
-      <c r="D668" t="n">
-        <v>9.739000000000001</v>
-      </c>
-      <c r="E668" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="F668" t="n">
-        <v>10173.3898</v>
-      </c>
-      <c r="G668" t="n">
-        <v>-449123.1775101423</v>
-      </c>
-      <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="C669" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="D669" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="E669" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="F669" t="n">
-        <v>107.7122</v>
-      </c>
-      <c r="G669" t="n">
-        <v>-449230.8897101423</v>
-      </c>
-      <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>9.739000000000001</v>
-      </c>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L669" t="n">
-        <v>1</v>
-      </c>
-      <c r="M669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="C670" t="n">
-        <v>9.728999999999999</v>
-      </c>
-      <c r="D670" t="n">
-        <v>9.728999999999999</v>
-      </c>
-      <c r="E670" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="F670" t="n">
-        <v>7733.154</v>
-      </c>
-      <c r="G670" t="n">
-        <v>-456964.0437101423</v>
-      </c>
-      <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>9.728999999999999</v>
-      </c>
-      <c r="C671" t="n">
-        <v>9.601000000000001</v>
-      </c>
-      <c r="D671" t="n">
-        <v>9.728999999999999</v>
-      </c>
-      <c r="E671" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="F671" t="n">
-        <v>91792.89659999999</v>
-      </c>
-      <c r="G671" t="n">
-        <v>-548756.9403101424</v>
-      </c>
-      <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>9.728999999999999</v>
-      </c>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C672" t="n">
-        <v>9.531000000000001</v>
-      </c>
-      <c r="D672" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="E672" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F672" t="n">
-        <v>214442.646</v>
-      </c>
-      <c r="G672" t="n">
-        <v>-763199.5863101424</v>
-      </c>
-      <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C673" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D673" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E673" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F673" t="n">
-        <v>36762.5059</v>
-      </c>
-      <c r="G673" t="n">
-        <v>-799962.0922101424</v>
-      </c>
-      <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>9.531000000000001</v>
-      </c>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C674" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D674" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E674" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F674" t="n">
-        <v>4034</v>
-      </c>
-      <c r="G674" t="n">
-        <v>-795928.0922101424</v>
-      </c>
-      <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="C675" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="D675" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="E675" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="F675" t="n">
-        <v>385.019</v>
-      </c>
-      <c r="G675" t="n">
-        <v>-796313.1112101424</v>
-      </c>
-      <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C676" t="n">
-        <v>9.510999999999999</v>
-      </c>
-      <c r="D676" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E676" t="n">
-        <v>9.510999999999999</v>
-      </c>
-      <c r="F676" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G676" t="n">
-        <v>-810313.1112101424</v>
-      </c>
-      <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C677" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D677" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E677" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F677" t="n">
-        <v>8771</v>
-      </c>
-      <c r="G677" t="n">
-        <v>-801542.1112101424</v>
-      </c>
-      <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>9.510999999999999</v>
-      </c>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>9.510999999999999</v>
-      </c>
-      <c r="C678" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="D678" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="E678" t="n">
-        <v>9.500999999999999</v>
-      </c>
-      <c r="F678" t="n">
-        <v>29879.0183</v>
-      </c>
-      <c r="G678" t="n">
-        <v>-771663.0929101424</v>
-      </c>
-      <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="C679" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D679" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="E679" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F679" t="n">
-        <v>21356.569</v>
-      </c>
-      <c r="G679" t="n">
-        <v>-793019.6619101424</v>
-      </c>
-      <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="C680" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="D680" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="E680" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="F680" t="n">
-        <v>524</v>
-      </c>
-      <c r="G680" t="n">
-        <v>-793543.6619101424</v>
-      </c>
-      <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>9.491</v>
-      </c>
-      <c r="C681" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="D681" t="n">
-        <v>9.491</v>
-      </c>
-      <c r="E681" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="F681" t="n">
-        <v>21337.8244</v>
-      </c>
-      <c r="G681" t="n">
-        <v>-793543.6619101424</v>
-      </c>
-      <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="C682" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="D682" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="E682" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="F682" t="n">
-        <v>662</v>
-      </c>
-      <c r="G682" t="n">
-        <v>-793543.6619101424</v>
-      </c>
-      <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L682" t="n">
-        <v>1</v>
-      </c>
-      <c r="M682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="C683" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="D683" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="E683" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="F683" t="n">
-        <v>98698.1871</v>
-      </c>
-      <c r="G683" t="n">
-        <v>-892241.8490101424</v>
-      </c>
-      <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L683" t="n">
-        <v>1</v>
-      </c>
-      <c r="M683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="C684" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="D684" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="E684" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="F684" t="n">
-        <v>9462.1756</v>
-      </c>
-      <c r="G684" t="n">
-        <v>-882779.6734101424</v>
-      </c>
-      <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
-      <c r="M684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C685" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="D685" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E685" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="F685" t="n">
-        <v>246266.1279</v>
-      </c>
-      <c r="G685" t="n">
-        <v>-1129045.801310143</v>
-      </c>
-      <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="C686" t="n">
-        <v>9.361000000000001</v>
-      </c>
-      <c r="D686" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="E686" t="n">
-        <v>9.361000000000001</v>
-      </c>
-      <c r="F686" t="n">
-        <v>192095.1279</v>
-      </c>
-      <c r="G686" t="n">
-        <v>-1321140.929210142</v>
-      </c>
-      <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>9.381</v>
-      </c>
-      <c r="C687" t="n">
-        <v>9.381</v>
-      </c>
-      <c r="D687" t="n">
-        <v>9.381</v>
-      </c>
-      <c r="E687" t="n">
-        <v>9.381</v>
-      </c>
-      <c r="F687" t="n">
-        <v>17102.8337</v>
-      </c>
-      <c r="G687" t="n">
-        <v>-1304038.095510142</v>
-      </c>
-      <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>9.361000000000001</v>
-      </c>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C688" t="n">
-        <v>9.609</v>
-      </c>
-      <c r="D688" t="n">
-        <v>9.609</v>
-      </c>
-      <c r="E688" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F688" t="n">
-        <v>8550.7068</v>
-      </c>
-      <c r="G688" t="n">
-        <v>-1295487.388710142</v>
-      </c>
-      <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>9.381</v>
-      </c>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="C689" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D689" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E689" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F689" t="n">
-        <v>45288.6706</v>
-      </c>
-      <c r="G689" t="n">
-        <v>-1340776.059310142</v>
-      </c>
-      <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>9.609</v>
-      </c>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="C690" t="n">
-        <v>9.371</v>
-      </c>
-      <c r="D690" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="E690" t="n">
-        <v>9.371</v>
-      </c>
-      <c r="F690" t="n">
-        <v>69705.80620000001</v>
-      </c>
-      <c r="G690" t="n">
-        <v>-1410481.865510142</v>
-      </c>
-      <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="C691" t="n">
-        <v>9.372</v>
-      </c>
-      <c r="D691" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="E691" t="n">
-        <v>9.372</v>
-      </c>
-      <c r="F691" t="n">
-        <v>13365.9169</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-1397115.948610142</v>
-      </c>
-      <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>9.371</v>
-      </c>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>9.372</v>
-      </c>
-      <c r="C692" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="D692" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="E692" t="n">
-        <v>9.372</v>
-      </c>
-      <c r="F692" t="n">
-        <v>41267.7263</v>
-      </c>
-      <c r="G692" t="n">
-        <v>-1355848.222310142</v>
-      </c>
-      <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>9.372</v>
-      </c>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>9.569000000000001</v>
-      </c>
-      <c r="C693" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="D693" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="E693" t="n">
-        <v>9.226000000000001</v>
-      </c>
-      <c r="F693" t="n">
-        <v>474080.7464</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-1829928.968710142</v>
-      </c>
-      <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C694" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="D694" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="E694" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="F694" t="n">
-        <v>96020</v>
-      </c>
-      <c r="G694" t="n">
-        <v>-1925948.968710142</v>
-      </c>
-      <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L694" t="n">
-        <v>1</v>
-      </c>
-      <c r="M694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="C695" t="n">
-        <v>9.538</v>
-      </c>
-      <c r="D695" t="n">
-        <v>9.539</v>
-      </c>
-      <c r="E695" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="F695" t="n">
-        <v>89999.3357</v>
-      </c>
-      <c r="G695" t="n">
-        <v>-2015948.304410142</v>
-      </c>
-      <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
-      <c r="M695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="n">
-        <v>9.515000000000001</v>
-      </c>
-      <c r="C696" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D696" t="n">
-        <v>9.515000000000001</v>
-      </c>
-      <c r="E696" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F696" t="n">
-        <v>26000</v>
-      </c>
-      <c r="G696" t="n">
-        <v>-2041948.304410142</v>
-      </c>
-      <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>9.538</v>
-      </c>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
-      <c r="M696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C697" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="D697" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E697" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="F697" t="n">
-        <v>48643</v>
-      </c>
-      <c r="G697" t="n">
-        <v>-2090591.304410142</v>
-      </c>
-      <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="C698" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D698" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E698" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="F698" t="n">
-        <v>18000</v>
-      </c>
-      <c r="G698" t="n">
-        <v>-2072591.304410142</v>
-      </c>
-      <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C699" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="D699" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="E699" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F699" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G699" t="n">
-        <v>-2062591.304410142</v>
-      </c>
-      <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="C700" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="D700" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="E700" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="F700" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G700" t="n">
-        <v>-2062591.304410142</v>
-      </c>
-      <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L700" t="n">
-        <v>1</v>
-      </c>
-      <c r="M700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="C701" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="D701" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="E701" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="F701" t="n">
-        <v>85062</v>
-      </c>
-      <c r="G701" t="n">
-        <v>-2062591.304410142</v>
-      </c>
-      <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L701" t="n">
-        <v>1</v>
-      </c>
-      <c r="M701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="C702" t="n">
-        <v>9.734</v>
-      </c>
-      <c r="D702" t="n">
-        <v>9.734</v>
-      </c>
-      <c r="E702" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="F702" t="n">
-        <v>135133.7514916376</v>
-      </c>
-      <c r="G702" t="n">
-        <v>-1927457.552918505</v>
-      </c>
-      <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>9.522</v>
-      </c>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L702" t="n">
-        <v>1</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="C703" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D703" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E703" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F703" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-1947457.552918505</v>
-      </c>
-      <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>9.734</v>
-      </c>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="C704" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="D704" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="E704" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="F704" t="n">
-        <v>11741.7556</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-1959199.308518505</v>
-      </c>
-      <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
-      <c r="M704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C705" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="D705" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E705" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="F705" t="n">
-        <v>71289.72410000001</v>
-      </c>
-      <c r="G705" t="n">
-        <v>-2030489.032618505</v>
-      </c>
-      <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>9.451000000000001</v>
-      </c>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="C706" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="D706" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="E706" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="F706" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-2030489.032618505</v>
-      </c>
-      <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C707" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D707" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E707" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F707" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-2024489.032618505</v>
-      </c>
-      <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L707" t="n">
-        <v>1</v>
-      </c>
-      <c r="M707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C708" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="D708" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="E708" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F708" t="n">
-        <v>120255</v>
-      </c>
-      <c r="G708" t="n">
-        <v>-1904234.032618505</v>
-      </c>
-      <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24338,11 +23788,9 @@
         <v>-1814259.032618505</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>9.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -24377,11 +23825,9 @@
         <v>-1814259.032618505</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>9.515000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24416,11 +23862,9 @@
         <v>-1846197.032618505</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>9.515000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -24494,11 +23938,9 @@
         <v>-1286136.912818505</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>9.638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24533,11 +23975,9 @@
         <v>-1286136.912818505</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>9.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24572,11 +24012,9 @@
         <v>-1295050.272818505</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>9.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24611,11 +24049,9 @@
         <v>-1271894.230618505</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>9.640000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24650,11 +24086,9 @@
         <v>-1272761.404418505</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>9.710000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24689,11 +24123,9 @@
         <v>-1272651.404418505</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>9.603999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -24728,11 +24160,9 @@
         <v>-1272761.404418505</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>9.843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24767,11 +24197,9 @@
         <v>-1272859.404418505</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>9.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24806,11 +24234,9 @@
         <v>-1370554.504518505</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>9.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24845,11 +24271,9 @@
         <v>-1369977.681518505</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>9.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24884,11 +24308,9 @@
         <v>-1369543.607618505</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>9.800000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24923,11 +24345,9 @@
         <v>-1375763.607618505</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>9.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24962,11 +24382,9 @@
         <v>-1375763.607618505</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>9.898999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -25001,11 +24419,9 @@
         <v>-1318165.506313564</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>9.898999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -25040,11 +24456,9 @@
         <v>-1334309.015808624</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>9.978999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -25079,11 +24493,9 @@
         <v>-1334087.015808624</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>9.711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -25155,11 +24567,9 @@
         <v>-1336000.886008624</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>9.720000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -25194,11 +24604,9 @@
         <v>-1393323.987308624</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>9.720000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -25233,11 +24641,9 @@
         <v>-1393019.289708624</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>9.613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25272,11 +24678,9 @@
         <v>-1393239.289708624</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>9.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -25311,11 +24715,9 @@
         <v>-1396704.674108624</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>9.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25350,11 +24752,9 @@
         <v>-1396704.674108624</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>9.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25389,11 +24789,9 @@
         <v>-1409368.775908624</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>9.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25428,11 +24826,9 @@
         <v>-1408983.775908624</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>9.614000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -25467,11 +24863,9 @@
         <v>-1408983.775908624</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>9.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25506,11 +24900,9 @@
         <v>-1410443.848108624</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>9.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25545,11 +24937,9 @@
         <v>-1410291.219508624</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>9.800000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25584,11 +24974,9 @@
         <v>-1430549.343508624</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>9.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -25660,11 +25048,9 @@
         <v>-1440841.048008624</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>9.641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25699,11 +25085,9 @@
         <v>-1440621.048008624</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>9.798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25738,11 +25122,9 @@
         <v>-1440830.072208624</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>9.798999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -25777,11 +25159,9 @@
         <v>-2029327.981908624</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>9.798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25816,11 +25196,9 @@
         <v>-2029327.981908624</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>9.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25855,11 +25233,9 @@
         <v>-2039949.686508624</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>9.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25894,11 +25270,9 @@
         <v>-2039949.686508624</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>9.661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -25933,11 +25307,9 @@
         <v>-2026283.397408624</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>9.661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -25972,11 +25344,9 @@
         <v>-2162821.127408625</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>9.789999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -26011,11 +25381,9 @@
         <v>-2162271.127408625</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>9.662000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -26050,11 +25418,9 @@
         <v>-2189679.536308625</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>9.858000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -26089,11 +25455,9 @@
         <v>-2189184.536308625</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>9.699999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -26128,11 +25492,9 @@
         <v>-2196703.808808625</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>9.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -26167,11 +25529,9 @@
         <v>-2181239.536208625</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>9.662000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -26206,11 +25566,9 @@
         <v>-2217165.536208625</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>9.701000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -26245,11 +25603,9 @@
         <v>-2217110.536208625</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>9.699999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -26284,11 +25640,9 @@
         <v>-2218412.833208625</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>9.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -26323,11 +25677,9 @@
         <v>-2238412.833208625</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>9.752000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -26362,11 +25714,9 @@
         <v>-2219463.833208625</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>9.699999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -26401,11 +25751,9 @@
         <v>-2219463.833208625</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>9.839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -26440,11 +25788,9 @@
         <v>-2218085.833208625</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>9.839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -26479,11 +25825,9 @@
         <v>-2201865.685708625</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>9.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -26555,11 +25899,9 @@
         <v>-2137730.396608625</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>9.880000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -26853,11 +26195,9 @@
         <v>-2100126.374908625</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>9.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26892,11 +26232,9 @@
         <v>-2147708.555308625</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>9.884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -26931,11 +26269,9 @@
         <v>-2226421.276808625</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>9.869999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26970,11 +26306,9 @@
         <v>-2178918.276808625</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>9.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -27009,11 +26343,9 @@
         <v>-2178918.276808625</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>9.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -27159,11 +26491,9 @@
         <v>-2325180.321208625</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>9.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -27315,11 +26645,9 @@
         <v>-2417760.938308625</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>9.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -27354,11 +26682,9 @@
         <v>-2417760.938308625</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>9.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -27547,11 +26873,9 @@
         <v>-2444875.384808625</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>9.807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -28247,11 +27571,9 @@
         <v>-2682855.816808624</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>9.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -28325,9 +27647,11 @@
         <v>-2692639.758708624</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -28401,11 +27725,9 @@
         <v>-2687539.758708624</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>9.851000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -28440,11 +27762,9 @@
         <v>-2687539.758708624</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>9.851000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -28518,11 +27838,9 @@
         <v>-3219770.736093723</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>9.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -28596,9 +27914,11 @@
         <v>-3153366.736093723</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>9.798999999999999</v>
+      </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -28711,11 +28031,9 @@
         <v>-3181366.736093723</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>9.798999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -29001,6 +28319,6 @@
       <c r="M829" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest OGO.xlsx
+++ b/BackTest/2020-01-11 BackTest OGO.xlsx
@@ -517,7 +517,7 @@
         <v>1774344.338376916</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1676829.557576916</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>443320.2476848934</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>438249.7300244385</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>288637.4876244385</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>870992.0889334134</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1323656.110970095</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>592544.9528240778</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>605118.9846023386</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>589118.9846023386</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>146646.3555023386</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>197802.1761023386</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>92646.94410233862</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>43031.75700233862</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>43031.75700233862</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>35807.02600233862</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>3135510.68353348</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>2888525.46843348</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>2903327.068436706</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>3191389.088136706</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>3078749.063312607</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>3078749.063312607</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>3043343.165312607</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>3267129.287012607</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>3163190.832712607</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>3220556.160712607</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>3259143.802912607</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>3259143.802912607</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>3556827.943609004</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>3177105.803809004</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>3168678.976499768</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>3091563.010999768</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>3240319.634499768</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>2447436.809499768</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2555020.847599768</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>3607451.080807664</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>2994591.061407664</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>3146375.794907664</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>2615483.527607664</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>2506026.002307664</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>2383908.882707664</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -23749,17 +23749,11 @@
         <v>-1904234.032618505</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>9.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23792,11 +23786,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23829,11 +23819,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23866,11 +23852,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23899,17 +23881,11 @@
         <v>-1495747.892818505</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>9.513999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23942,11 +23918,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23979,11 +23951,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24016,11 +23984,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24053,11 +24017,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24090,11 +24050,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24127,11 +24083,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24164,11 +24116,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24201,11 +24149,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24238,11 +24182,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24275,11 +24215,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24312,11 +24248,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24349,11 +24281,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24386,11 +24314,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24423,11 +24347,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24460,11 +24380,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24497,11 +24413,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24534,11 +24446,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24571,11 +24479,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24608,11 +24512,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24645,11 +24545,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24682,11 +24578,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24719,11 +24611,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24756,11 +24644,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24793,11 +24677,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24830,11 +24710,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24867,11 +24743,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +24776,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24941,11 +24809,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24978,11 +24842,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25015,11 +24875,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25052,11 +24908,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25089,11 +24941,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25126,11 +24974,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25163,11 +25007,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25200,11 +25040,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25237,11 +25073,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25274,11 +25106,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25311,11 +25139,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25348,11 +25172,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25385,11 +25205,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25422,11 +25238,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25459,11 +25271,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25496,11 +25304,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25533,11 +25337,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25570,11 +25370,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25607,11 +25403,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25644,11 +25436,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25681,11 +25469,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25718,11 +25502,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25755,11 +25535,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25792,11 +25568,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25829,11 +25601,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25866,11 +25634,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25903,11 +25667,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25940,11 +25700,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25977,11 +25733,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26014,11 +25766,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26051,11 +25799,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26088,11 +25832,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +25865,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26162,11 +25898,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26199,11 +25931,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26236,11 +25964,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26273,11 +25997,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26310,11 +26030,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26347,11 +26063,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26384,11 +26096,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26421,11 +26129,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26458,11 +26162,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26495,11 +26195,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26528,17 +26224,11 @@
         <v>-2325180.321208625</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>9.641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26567,17 +26257,11 @@
         <v>-2307031.938308625</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>9.641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26606,17 +26290,11 @@
         <v>-2309031.938308625</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>9.842000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26649,11 +26327,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +26360,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26723,11 +26393,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26756,17 +26422,11 @@
         <v>-2449886.384808625</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>9.619999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26795,17 +26455,11 @@
         <v>-2444875.384808625</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>9.619999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26834,17 +26488,11 @@
         <v>-2444875.384808625</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>9.807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26877,11 +26525,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26910,17 +26554,11 @@
         <v>-2862729.999408625</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>9.807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26953,11 +26591,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26986,17 +26620,11 @@
         <v>-2989688.240908625</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>9.789999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27025,17 +26653,11 @@
         <v>-2986520.343308625</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>9.603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27064,17 +26686,11 @@
         <v>-2986729.367508625</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>9.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27103,17 +26719,11 @@
         <v>-3170758.450008625</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>9.603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27142,17 +26752,11 @@
         <v>-3397914.925408625</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>9.602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27189,7 +26793,7 @@
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L800" t="n">
@@ -27298,11 +26902,9 @@
         <v>-3192709.816708624</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>9.551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27337,11 +26939,9 @@
         <v>-2963472.816708624</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>9.718999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27376,11 +26976,9 @@
         <v>-2931409.816808624</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>9.734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27415,11 +27013,9 @@
         <v>-2949409.816808624</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>9.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27454,11 +27050,9 @@
         <v>-2949409.816808624</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>9.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27493,11 +27087,9 @@
         <v>-2878000.816808624</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>9.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27532,11 +27124,9 @@
         <v>-2682855.816808624</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>9.829000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27608,11 +27198,9 @@
         <v>-2687763.723608624</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>9.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27647,11 +27235,9 @@
         <v>-2692639.758708624</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>9.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27686,11 +27272,9 @@
         <v>-2687539.758708624</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>9.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27799,11 +27383,9 @@
         <v>-3173808.59591453</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>9.851000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -27875,11 +27457,9 @@
         <v>-3227474.736093723</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>9.819000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -27914,11 +27494,9 @@
         <v>-3153366.736093723</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>9.798999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -27953,11 +27531,9 @@
         <v>-3181366.736093723</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>9.800000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -27992,11 +27568,9 @@
         <v>-3181366.736093723</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>9.798999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
